--- a/Organization1.xlsx
+++ b/Organization1.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usario\Desktop\Desarrollo de software\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Diego\Dropbox\Git\SoftwareDevelopment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{154AA5B6-8385-4C41-AEA4-6694AF8FAA93}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="2" xr2:uid="{974D1BF5-3EAB-4A69-8FA2-D9EF26FB39B2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9075" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Stories_Requeriment" sheetId="1" r:id="rId1"/>
     <sheet name="Definition_of_down" sheetId="2" r:id="rId2"/>
     <sheet name="Burn down" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -391,7 +390,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -627,6 +626,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -644,18 +655,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -732,7 +731,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -746,7 +744,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -761,7 +758,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -775,7 +771,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -789,7 +784,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -803,7 +797,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -821,7 +814,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -989,7 +982,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-07E6-43EC-8ED3-7530B0530F84}"/>
             </c:ext>
@@ -1005,11 +998,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="454442048"/>
-        <c:axId val="454442376"/>
+        <c:axId val="-816840640"/>
+        <c:axId val="-816845536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="454442048"/>
+        <c:axId val="-816840640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1052,7 +1045,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454442376"/>
+        <c:crossAx val="-816845536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1060,7 +1053,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="454442376"/>
+        <c:axId val="-816845536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1111,7 +1104,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454442048"/>
+        <c:crossAx val="-816840640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1125,14 +1118,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1730,7 +1723,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D6D8321-EC42-4593-A9D7-994CB629BE74}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D6D8321-EC42-4593-A9D7-994CB629BE74}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1752,14 +1745,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B921D992-CD7C-4D64-B66C-A855D30DD7FA}" name="Tabla2" displayName="Tabla2" ref="B2:F20" totalsRowShown="0" dataDxfId="11">
-  <autoFilter ref="B2:F20" xr:uid="{8748B235-5660-445E-8C65-50C016C215A1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="B2:F20" totalsRowShown="0" dataDxfId="11">
+  <autoFilter ref="B2:F20"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{67EB9C55-F262-4A5A-8D0F-F008F4BA0A7B}" name="id" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{18B9BD31-4E37-494B-8EA0-0B841FFFE770}" name="User Story" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{DF48D8AF-8DCA-4EA1-81E7-83EC2ED87760}" name="System Requeriment " dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{5BC7C38D-A452-4C10-BD48-B18D479F06C9}" name="Story Points " dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{DB875965-DA0C-4A6A-8539-6307D05DC6E1}" name="Priority" dataDxfId="6"/>
+    <tableColumn id="1" name="id" dataDxfId="10"/>
+    <tableColumn id="2" name="User Story" dataDxfId="9"/>
+    <tableColumn id="3" name="System Requeriment " dataDxfId="8"/>
+    <tableColumn id="4" name="Story Points " dataDxfId="7"/>
+    <tableColumn id="5" name="Priority" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2061,34 +2054,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA40DBD-F22C-4A2D-9843-9266CA26F8AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12:E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.21875" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" customWidth="1"/>
-    <col min="7" max="7" width="17.77734375" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="11" width="11.5546875" customWidth="1"/>
+    <col min="9" max="11" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B1" s="30" t="s">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
@@ -2105,7 +2098,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
         <v>3</v>
       </c>
@@ -2118,7 +2111,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="13" t="s">
         <v>4</v>
       </c>
@@ -2133,7 +2126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="13" t="s">
         <v>5</v>
       </c>
@@ -2148,7 +2141,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="13" t="s">
         <v>6</v>
       </c>
@@ -2163,7 +2156,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
         <v>7</v>
       </c>
@@ -2178,7 +2171,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="13" t="s">
         <v>8</v>
       </c>
@@ -2196,7 +2189,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
         <v>9</v>
       </c>
@@ -2211,7 +2204,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="13" t="s">
         <v>10</v>
       </c>
@@ -2226,7 +2219,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="13" t="s">
         <v>11</v>
       </c>
@@ -2241,7 +2234,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
         <v>12</v>
       </c>
@@ -2256,7 +2249,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="13" t="s">
         <v>13</v>
       </c>
@@ -2271,7 +2264,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="13" t="s">
         <v>14</v>
       </c>
@@ -2286,7 +2279,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="13" t="s">
         <v>63</v>
       </c>
@@ -2301,7 +2294,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="13" t="s">
         <v>76</v>
       </c>
@@ -2316,7 +2309,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="13" t="s">
         <v>78</v>
       </c>
@@ -2331,7 +2324,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="13" t="s">
         <v>79</v>
       </c>
@@ -2346,7 +2339,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="13" t="s">
         <v>85</v>
       </c>
@@ -2361,7 +2354,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="13" t="s">
         <v>86</v>
       </c>
@@ -2376,17 +2369,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C28" s="2" t="s">
         <v>24</v>
       </c>
@@ -2394,7 +2387,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C29" s="4" t="s">
         <v>28</v>
       </c>
@@ -2408,7 +2401,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C30" s="4" t="s">
         <v>29</v>
       </c>
@@ -2422,7 +2415,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C31" s="1" t="s">
         <v>30</v>
       </c>
@@ -2436,7 +2429,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C32" s="1" t="s">
         <v>31</v>
       </c>
@@ -2450,7 +2443,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C33" s="1" t="s">
         <v>32</v>
       </c>
@@ -2458,7 +2451,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C34" s="1" t="s">
         <v>33</v>
       </c>
@@ -2478,44 +2471,44 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{139A8495-CE30-4BFE-B900-625EB4253F97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6:B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.109375" customWidth="1"/>
-    <col min="2" max="2" width="39.88671875" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="39.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C3" s="32" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C3" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" s="14" t="s">
         <v>40</v>
       </c>
@@ -2531,7 +2524,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="25"/>
       <c r="C5" s="14" t="s">
         <v>41</v>
@@ -2552,8 +2545,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="37" t="s">
         <v>45</v>
       </c>
       <c r="B6" s="26" t="s">
@@ -2578,8 +2571,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="33"/>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="37"/>
       <c r="B7" s="26" t="s">
         <v>81</v>
       </c>
@@ -2602,8 +2595,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="33"/>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="37"/>
       <c r="B8" s="21" t="s">
         <v>82</v>
       </c>
@@ -2626,8 +2619,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="33"/>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="37"/>
       <c r="B9" s="24" t="s">
         <v>83</v>
       </c>
@@ -2650,8 +2643,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="33"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="37"/>
       <c r="B10" s="26" t="s">
         <v>84</v>
       </c>
@@ -2674,8 +2667,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="33"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="37"/>
       <c r="B11" s="26" t="s">
         <v>96</v>
       </c>
@@ -2698,8 +2691,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="33"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="37"/>
       <c r="B12" s="26" t="s">
         <v>94</v>
       </c>
@@ -2722,8 +2715,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="33"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="37"/>
       <c r="B13" s="23" t="s">
         <v>97</v>
       </c>
@@ -2746,8 +2739,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="33"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="37"/>
       <c r="B14" s="18" t="s">
         <v>98</v>
       </c>
@@ -2770,7 +2763,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="24" t="s">
         <v>99</v>
       </c>
@@ -2793,7 +2786,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="24" t="s">
         <v>100</v>
       </c>
@@ -2816,7 +2809,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="18" t="s">
         <v>101</v>
       </c>
@@ -2839,7 +2832,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="20" t="s">
         <v>102</v>
       </c>
@@ -2862,7 +2855,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="21" t="s">
         <v>103</v>
       </c>
@@ -2885,7 +2878,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="19" t="s">
         <v>104</v>
       </c>
@@ -2908,7 +2901,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="22"/>
     </row>
   </sheetData>
@@ -2960,21 +2953,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D578378-95A4-40F6-82E5-A31DEAE8CD68}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E18" activeCellId="1" sqref="E2:J2 E18:J18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="41.88671875" customWidth="1"/>
-    <col min="3" max="3" width="31.5546875" customWidth="1"/>
-    <col min="4" max="4" width="21.77734375" customWidth="1"/>
+    <col min="2" max="2" width="41.85546875" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B1" s="7" t="s">
         <v>15</v>
       </c>
@@ -2984,16 +2977,16 @@
       <c r="D1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
         <v>53</v>
       </c>
@@ -3013,14 +3006,14 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="26" t="s">
         <v>80</v>
       </c>
       <c r="C3" t="s">
         <v>105</v>
       </c>
-      <c r="D3" s="38">
+      <c r="D3" s="32">
         <v>3</v>
       </c>
       <c r="E3">
@@ -3039,14 +3032,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="26" t="s">
         <v>81</v>
       </c>
       <c r="C4" t="s">
         <v>106</v>
       </c>
-      <c r="D4" s="37">
+      <c r="D4" s="31">
         <v>5</v>
       </c>
       <c r="E4">
@@ -3065,14 +3058,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="21" t="s">
         <v>82</v>
       </c>
       <c r="C5" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="39">
+      <c r="D5" s="33">
         <v>7</v>
       </c>
       <c r="E5">
@@ -3091,15 +3084,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="D6" s="38">
-        <v>5</v>
+      <c r="D6" s="32">
+        <v>7</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -3117,14 +3110,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="26" t="s">
         <v>84</v>
       </c>
       <c r="C7" t="s">
         <v>107</v>
       </c>
-      <c r="D7" s="37">
+      <c r="D7" s="31">
         <v>7</v>
       </c>
       <c r="E7">
@@ -3143,14 +3136,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="26" t="s">
         <v>96</v>
       </c>
       <c r="C8" t="s">
         <v>109</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="32">
         <v>9</v>
       </c>
       <c r="E8">
@@ -3169,14 +3162,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="26" t="s">
         <v>94</v>
       </c>
       <c r="C9" t="s">
         <v>109</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="32">
         <v>12</v>
       </c>
       <c r="E9">
@@ -3195,14 +3188,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="23" t="s">
         <v>97</v>
       </c>
       <c r="C10" t="s">
         <v>106</v>
       </c>
-      <c r="D10" s="37">
+      <c r="D10" s="31">
         <v>12</v>
       </c>
       <c r="E10">
@@ -3221,14 +3214,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="18" t="s">
         <v>98</v>
       </c>
       <c r="C11" t="s">
         <v>109</v>
       </c>
-      <c r="D11" s="38">
+      <c r="D11" s="32">
         <v>12</v>
       </c>
       <c r="E11">
@@ -3247,14 +3240,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="24" t="s">
         <v>99</v>
       </c>
       <c r="C12" t="s">
         <v>110</v>
       </c>
-      <c r="D12" s="37">
+      <c r="D12" s="31">
         <v>12</v>
       </c>
       <c r="E12">
@@ -3273,14 +3266,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="24" t="s">
         <v>100</v>
       </c>
       <c r="C13" t="s">
         <v>111</v>
       </c>
-      <c r="D13" s="38">
+      <c r="D13" s="32">
         <v>12</v>
       </c>
       <c r="E13">
@@ -3299,14 +3292,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="18" t="s">
         <v>101</v>
       </c>
       <c r="C14" t="s">
         <v>110</v>
       </c>
-      <c r="D14" s="37">
+      <c r="D14" s="31">
         <v>12</v>
       </c>
       <c r="E14">
@@ -3325,14 +3318,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="20" t="s">
         <v>102</v>
       </c>
       <c r="C15" t="s">
         <v>111</v>
       </c>
-      <c r="D15" s="38">
+      <c r="D15" s="32">
         <v>12</v>
       </c>
       <c r="E15">
@@ -3351,14 +3344,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="21" t="s">
         <v>103</v>
       </c>
       <c r="C16" t="s">
         <v>112</v>
       </c>
-      <c r="D16" s="37">
+      <c r="D16" s="31">
         <v>12</v>
       </c>
       <c r="E16">
@@ -3377,14 +3370,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="19" t="s">
         <v>104</v>
       </c>
       <c r="C17" t="s">
         <v>107</v>
       </c>
-      <c r="D17" s="38">
+      <c r="D17" s="32">
         <v>12</v>
       </c>
       <c r="E17">
@@ -3400,32 +3393,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>61</v>
       </c>
       <c r="E18" s="9">
-        <f>SUM(E3:E17)</f>
+        <f t="shared" ref="E18:J18" si="0">SUM(E3:E17)</f>
         <v>18</v>
       </c>
       <c r="F18" s="9">
-        <f>SUM(F3:F17)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="G18" s="9">
-        <f>SUM(G3:G17)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="H18" s="9">
-        <f>SUM(H3:H17)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="I18" s="9">
-        <f>SUM(I3:I17)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="J18" s="9">
-        <f>SUM(J3:J17)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>

--- a/Organization1.xlsx
+++ b/Organization1.xlsx
@@ -998,11 +998,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-816840640"/>
-        <c:axId val="-816845536"/>
+        <c:axId val="1031988128"/>
+        <c:axId val="1031981056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-816840640"/>
+        <c:axId val="1031988128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1045,7 +1045,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-816845536"/>
+        <c:crossAx val="1031981056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1053,7 +1053,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-816845536"/>
+        <c:axId val="1031981056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1104,7 +1104,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-816840640"/>
+        <c:crossAx val="1031988128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1723,7 +1723,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D6D8321-EC42-4593-A9D7-994CB629BE74}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D6D8321-EC42-4593-A9D7-994CB629BE74}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2957,7 +2957,7 @@
   <dimension ref="B1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3092,7 +3092,7 @@
         <v>108</v>
       </c>
       <c r="D6" s="32">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -3170,7 +3170,7 @@
         <v>109</v>
       </c>
       <c r="D9" s="32">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -3222,7 +3222,7 @@
         <v>109</v>
       </c>
       <c r="D11" s="32">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>1</v>
